--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/GameAnalysis/GameAnalysis.Resources/Games/Caverna/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3934991B-BE01-42A7-BDAB-8ED2D59FA6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="102_{121A5001-816A-4708-9BBF-EAA567F93A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{36985532-6C4F-4418-AD1A-DF6626D0B5C3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="expedition" sheetId="3" r:id="rId3"/>
     <sheet name="ruby" sheetId="4" r:id="rId4"/>
     <sheet name="food" sheetId="5" r:id="rId5"/>
-    <sheet name="animal storage" sheetId="6" r:id="rId6"/>
-    <sheet name="score" sheetId="7" r:id="rId7"/>
+    <sheet name="market" sheetId="8" r:id="rId6"/>
+    <sheet name="animal storage" sheetId="6" r:id="rId7"/>
+    <sheet name="score" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="324">
   <si>
     <t>name</t>
   </si>
@@ -176,9 +178,6 @@
     <t>go on a level 1 expedition with the active dwarf</t>
   </si>
   <si>
-    <t>if accumulated items is empty then 2 wood and always 2 wood</t>
-  </si>
-  <si>
     <t>supplies</t>
   </si>
   <si>
@@ -326,9 +325,6 @@
     <t>fence building</t>
   </si>
   <si>
-    <t>take the accumulated items</t>
-  </si>
-  <si>
     <t>pay 2 wood and then place 1 pasture on a meadow and/or pay 4 wood and place 1 large pasture on two connected meadows</t>
   </si>
   <si>
@@ -1010,7 +1006,10 @@
     <t>done</t>
   </si>
   <si>
-    <t>?</t>
+    <t>always 3 wood</t>
+  </si>
+  <si>
+    <t>always 1 ruby and if accumulated items is empty then 1 ruby</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1122,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D9CC4E6-CB70-411E-A7A4-573F16AAC537}" name="Table1" displayName="Table1" ref="A1:J35" totalsRowShown="0">
   <autoFilter ref="A1:J35" xr:uid="{3766C5D4-C361-44B4-AD98-BAD8BD214D0C}"/>
-  <sortState ref="A2:I35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I35">
     <sortCondition ref="C1:C35"/>
   </sortState>
   <tableColumns count="10">
@@ -1457,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1499,15 +1498,15 @@
         <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1519,16 +1518,16 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1562,7 +1561,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1574,13 +1573,13 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -1588,7 +1587,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1600,16 +1599,19 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1621,16 +1623,16 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1638,7 +1640,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1647,21 +1649,24 @@
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1673,19 +1678,22 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2"/>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1694,7 +1702,7 @@
         <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1703,12 +1711,15 @@
         <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1717,18 +1728,21 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1737,19 +1751,22 @@
         <v>-1</v>
       </c>
       <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
         <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="2"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1758,21 +1775,24 @@
         <v>-1</v>
       </c>
       <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>92</v>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1781,21 +1801,21 @@
         <v>-1</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1807,10 +1827,10 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1834,18 +1854,18 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" t="s">
-        <v>324</v>
+        <v>77</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1857,21 +1877,21 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1880,10 +1900,10 @@
         <v>-1</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1915,7 +1935,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1927,16 +1947,16 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1944,7 +1964,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1953,7 +1973,7 @@
         <v>-1</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1962,7 +1982,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -1974,16 +1994,16 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2008,6 +2028,9 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2032,7 +2055,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -2041,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -2053,7 +2076,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2062,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -2071,13 +2094,13 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2086,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>32</v>
@@ -2095,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -2110,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -2131,17 +2154,17 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2165,7 +2188,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,13 +2225,13 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -2256,7 +2279,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -2265,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
@@ -2274,7 +2297,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -2286,10 +2309,13 @@
         <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>323</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -2311,10 +2337,10 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2322,62 +2348,62 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
         <v>110</v>
-      </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
         <v>113</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
         <v>116</v>
-      </c>
-      <c r="D43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" t="s">
         <v>309</v>
-      </c>
-      <c r="D44" t="s">
-        <v>310</v>
-      </c>
-      <c r="E44" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2393,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,15 +2443,15 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2433,7 +2459,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2441,14 +2467,14 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
     <sortCondition ref="C31"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
@@ -2475,7 +2501,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,246 +2520,246 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" t="s">
         <v>242</v>
-      </c>
-      <c r="E1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>141</v>
       </c>
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>143</v>
-      </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
         <v>146</v>
-      </c>
-      <c r="F13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,586 +2767,586 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" t="s">
         <v>214</v>
-      </c>
-      <c r="E33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" t="s">
         <v>230</v>
       </c>
-      <c r="B48" t="s">
-        <v>232</v>
-      </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3390,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3398,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3430,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3464,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3472,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +3496,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +3504,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3520,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3552,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3560,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3554,122 +3580,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
         <v>266</v>
-      </c>
-      <c r="B11" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3689,7 +3715,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3697,7 +3723,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3705,7 +3731,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3713,7 +3739,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3721,7 +3747,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3729,7 +3755,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3737,7 +3763,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3745,7 +3771,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3753,7 +3779,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3761,7 +3787,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3769,7 +3795,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -3777,7 +3803,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -3785,7 +3811,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3797,6 +3823,101 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D9A56C-081B-4BBC-9E4B-577C5ED8B336}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54FD870-7F1A-4C7F-912B-B9716B3C99B6}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -3812,134 +3933,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>286</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C397FE4-D998-447B-A106-53D1902D7808}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -3962,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -3970,7 +4091,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2">
         <v>-2</v>
@@ -3978,7 +4099,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3986,7 +4107,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3994,7 +4115,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4002,7 +4123,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4010,7 +4131,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -4018,12 +4139,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4031,7 +4152,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10">
         <v>-3</v>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/GameAnalysis/GameAnalysis.Resources/Games/Caverna/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastair\OneDrive\Documents\Creative\Programming\Python\Caverna\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="102_{121A5001-816A-4708-9BBF-EAA567F93A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{36985532-6C4F-4418-AD1A-DF6626D0B5C3}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="102_{121A5001-816A-4708-9BBF-EAA567F93A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{65B3DB59-DCF8-4B96-BA9E-3AEB1D5EB283}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="market" sheetId="8" r:id="rId6"/>
     <sheet name="animal storage" sheetId="6" r:id="rId7"/>
     <sheet name="score" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="760">
   <si>
     <t>name</t>
   </si>
@@ -148,9 +149,6 @@
     <t>and/or</t>
   </si>
   <si>
-    <t>hollow a cavern</t>
-  </si>
-  <si>
     <t>weekly market</t>
   </si>
   <si>
@@ -238,9 +236,6 @@
     <t>housework</t>
   </si>
   <si>
-    <t>take 1 dog</t>
-  </si>
-  <si>
     <t>furnish a cavern</t>
   </si>
   <si>
@@ -424,9 +419,6 @@
     <t>8 wood 6 stone</t>
   </si>
   <si>
-    <t>room for 1 dwarf and increase population cap for active player by 1</t>
-  </si>
-  <si>
     <t>cuddle room</t>
   </si>
   <si>
@@ -1010,16 +1002,1339 @@
   </si>
   <si>
     <t>always 1 ruby and if accumulated items is empty then 1 ruby</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>action value function output</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>donkey farming</t>
+  </si>
+  <si>
+    <t>receive 1 dog</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>state value function input</t>
+  </si>
+  <si>
+    <t>not_active=0,taken_by_player_0=1,taken_by_player_1=2,…,taken_by_player_7=8,available=9</t>
+  </si>
+  <si>
+    <t>clearing_amount_wood</t>
+  </si>
+  <si>
+    <t>value representation</t>
+  </si>
+  <si>
+    <t>depot_amount_wood</t>
+  </si>
+  <si>
+    <t>depot_amount_ore</t>
+  </si>
+  <si>
+    <t>fence_building_amount_wood</t>
+  </si>
+  <si>
+    <t>drift_mining_amount_stone</t>
+  </si>
+  <si>
+    <t>drift_mining_2_amount_stone</t>
+  </si>
+  <si>
+    <t>excavation_2_amount_stone</t>
+  </si>
+  <si>
+    <t>forest_exploration_amount_wood</t>
+  </si>
+  <si>
+    <t>logging_amount_wood</t>
+  </si>
+  <si>
+    <t>sustenance_amount_grain</t>
+  </si>
+  <si>
+    <t>sustenance_amount_vegetable</t>
+  </si>
+  <si>
+    <t>ore_delivery_amount_stone</t>
+  </si>
+  <si>
+    <t>ore_delivery_amount_ore</t>
+  </si>
+  <si>
+    <t>ruby_mining_amount_ruby</t>
+  </si>
+  <si>
+    <t>starting_player_amount_food</t>
+  </si>
+  <si>
+    <t>sheep_farming_amount_sheep</t>
+  </si>
+  <si>
+    <t>donkey_farming_amount_donkey</t>
+  </si>
+  <si>
+    <t>ore_mining_amount_ore</t>
+  </si>
+  <si>
+    <t>player_0_amount_stone</t>
+  </si>
+  <si>
+    <t>player_0_amount_wood</t>
+  </si>
+  <si>
+    <t>player_0_amount_ore</t>
+  </si>
+  <si>
+    <t>player_0_amount_ruby</t>
+  </si>
+  <si>
+    <t>player_0_amount_coin</t>
+  </si>
+  <si>
+    <t>player_0_amount_food</t>
+  </si>
+  <si>
+    <t>player_0_amount_grain</t>
+  </si>
+  <si>
+    <t>player_0_amount_veg</t>
+  </si>
+  <si>
+    <t>player_0_amount_sheep</t>
+  </si>
+  <si>
+    <t>player_0_amount_donkey</t>
+  </si>
+  <si>
+    <t>player_0_amount_cow</t>
+  </si>
+  <si>
+    <t>player_0_amount_boar</t>
+  </si>
+  <si>
+    <t>player_0_amount_dog</t>
+  </si>
+  <si>
+    <t>player_1_amount_stone</t>
+  </si>
+  <si>
+    <t>player_1_amount_wood</t>
+  </si>
+  <si>
+    <t>player_1_amount_ore</t>
+  </si>
+  <si>
+    <t>player_1_amount_ruby</t>
+  </si>
+  <si>
+    <t>player_1_amount_coin</t>
+  </si>
+  <si>
+    <t>player_1_amount_food</t>
+  </si>
+  <si>
+    <t>player_1_amount_grain</t>
+  </si>
+  <si>
+    <t>player_1_amount_veg</t>
+  </si>
+  <si>
+    <t>player_1_amount_sheep</t>
+  </si>
+  <si>
+    <t>player_1_amount_donkey</t>
+  </si>
+  <si>
+    <t>player_1_amount_cow</t>
+  </si>
+  <si>
+    <t>player_1_amount_boar</t>
+  </si>
+  <si>
+    <t>player_1_amount_dog</t>
+  </si>
+  <si>
+    <t>player_2_amount_stone</t>
+  </si>
+  <si>
+    <t>player_2_amount_wood</t>
+  </si>
+  <si>
+    <t>player_2_amount_ore</t>
+  </si>
+  <si>
+    <t>player_2_amount_ruby</t>
+  </si>
+  <si>
+    <t>player_2_amount_coin</t>
+  </si>
+  <si>
+    <t>player_2_amount_food</t>
+  </si>
+  <si>
+    <t>player_2_amount_grain</t>
+  </si>
+  <si>
+    <t>player_2_amount_veg</t>
+  </si>
+  <si>
+    <t>player_2_amount_sheep</t>
+  </si>
+  <si>
+    <t>player_2_amount_donkey</t>
+  </si>
+  <si>
+    <t>player_2_amount_cow</t>
+  </si>
+  <si>
+    <t>player_2_amount_boar</t>
+  </si>
+  <si>
+    <t>player_2_amount_dog</t>
+  </si>
+  <si>
+    <t>player_3_amount_stone</t>
+  </si>
+  <si>
+    <t>player_3_amount_wood</t>
+  </si>
+  <si>
+    <t>player_3_amount_ore</t>
+  </si>
+  <si>
+    <t>player_3_amount_ruby</t>
+  </si>
+  <si>
+    <t>player_3_amount_coin</t>
+  </si>
+  <si>
+    <t>player_3_amount_food</t>
+  </si>
+  <si>
+    <t>player_3_amount_grain</t>
+  </si>
+  <si>
+    <t>player_3_amount_veg</t>
+  </si>
+  <si>
+    <t>player_3_amount_sheep</t>
+  </si>
+  <si>
+    <t>player_3_amount_donkey</t>
+  </si>
+  <si>
+    <t>player_3_amount_cow</t>
+  </si>
+  <si>
+    <t>player_3_amount_boar</t>
+  </si>
+  <si>
+    <t>player_3_amount_dog</t>
+  </si>
+  <si>
+    <t>player_4_amount_stone</t>
+  </si>
+  <si>
+    <t>player_4_amount_wood</t>
+  </si>
+  <si>
+    <t>player_4_amount_ore</t>
+  </si>
+  <si>
+    <t>player_4_amount_ruby</t>
+  </si>
+  <si>
+    <t>player_4_amount_coin</t>
+  </si>
+  <si>
+    <t>player_4_amount_food</t>
+  </si>
+  <si>
+    <t>player_4_amount_grain</t>
+  </si>
+  <si>
+    <t>player_4_amount_veg</t>
+  </si>
+  <si>
+    <t>player_4_amount_sheep</t>
+  </si>
+  <si>
+    <t>player_4_amount_donkey</t>
+  </si>
+  <si>
+    <t>player_4_amount_cow</t>
+  </si>
+  <si>
+    <t>player_4_amount_boar</t>
+  </si>
+  <si>
+    <t>player_4_amount_dog</t>
+  </si>
+  <si>
+    <t>player_5_amount_stone</t>
+  </si>
+  <si>
+    <t>player_5_amount_wood</t>
+  </si>
+  <si>
+    <t>player_5_amount_ore</t>
+  </si>
+  <si>
+    <t>player_5_amount_ruby</t>
+  </si>
+  <si>
+    <t>player_5_amount_coin</t>
+  </si>
+  <si>
+    <t>player_5_amount_food</t>
+  </si>
+  <si>
+    <t>player_5_amount_grain</t>
+  </si>
+  <si>
+    <t>player_5_amount_veg</t>
+  </si>
+  <si>
+    <t>player_5_amount_sheep</t>
+  </si>
+  <si>
+    <t>player_5_amount_donkey</t>
+  </si>
+  <si>
+    <t>player_5_amount_cow</t>
+  </si>
+  <si>
+    <t>player_5_amount_boar</t>
+  </si>
+  <si>
+    <t>player_5_amount_dog</t>
+  </si>
+  <si>
+    <t>player_6_amount_stone</t>
+  </si>
+  <si>
+    <t>player_6_amount_wood</t>
+  </si>
+  <si>
+    <t>player_6_amount_ore</t>
+  </si>
+  <si>
+    <t>player_6_amount_ruby</t>
+  </si>
+  <si>
+    <t>player_6_amount_coin</t>
+  </si>
+  <si>
+    <t>player_6_amount_food</t>
+  </si>
+  <si>
+    <t>player_6_amount_grain</t>
+  </si>
+  <si>
+    <t>player_6_amount_veg</t>
+  </si>
+  <si>
+    <t>player_6_amount_sheep</t>
+  </si>
+  <si>
+    <t>player_6_amount_donkey</t>
+  </si>
+  <si>
+    <t>player_6_amount_cow</t>
+  </si>
+  <si>
+    <t>player_6_amount_boar</t>
+  </si>
+  <si>
+    <t>player_6_amount_dog</t>
+  </si>
+  <si>
+    <t>player_0_turn_index</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t>player_0_board_1</t>
+  </si>
+  <si>
+    <t>player_0_board_2</t>
+  </si>
+  <si>
+    <t>player_0_board_3</t>
+  </si>
+  <si>
+    <t>player_0_board_4</t>
+  </si>
+  <si>
+    <t>player_0_board_5</t>
+  </si>
+  <si>
+    <t>player_0_board_6</t>
+  </si>
+  <si>
+    <t>player_0_board_8</t>
+  </si>
+  <si>
+    <t>player_0_board_9</t>
+  </si>
+  <si>
+    <t>player_0_board_10</t>
+  </si>
+  <si>
+    <t>player_0_board_11</t>
+  </si>
+  <si>
+    <t>player_0_board_12</t>
+  </si>
+  <si>
+    <t>player_0_board_13</t>
+  </si>
+  <si>
+    <t>player_0_board_14</t>
+  </si>
+  <si>
+    <t>player_0_board_15</t>
+  </si>
+  <si>
+    <t>player_0_board_16</t>
+  </si>
+  <si>
+    <t>player_0_board_17</t>
+  </si>
+  <si>
+    <t>player_0_board_18</t>
+  </si>
+  <si>
+    <t>player_0_board_19</t>
+  </si>
+  <si>
+    <t>player_0_board_20</t>
+  </si>
+  <si>
+    <t>player_0_board_21</t>
+  </si>
+  <si>
+    <t>player_0_board_22</t>
+  </si>
+  <si>
+    <t>player_0_board_23</t>
+  </si>
+  <si>
+    <t>player_0_board_24</t>
+  </si>
+  <si>
+    <t>player_0_board_25</t>
+  </si>
+  <si>
+    <t>player_0_board_26</t>
+  </si>
+  <si>
+    <t>player_0_board_27</t>
+  </si>
+  <si>
+    <t>player_0_board_28</t>
+  </si>
+  <si>
+    <t>player_0_board_29</t>
+  </si>
+  <si>
+    <t>player_0_board_30</t>
+  </si>
+  <si>
+    <t>player_0_board_31</t>
+  </si>
+  <si>
+    <t>player_0_board_32</t>
+  </si>
+  <si>
+    <t>player_0_board_33</t>
+  </si>
+  <si>
+    <t>player_0_board_34</t>
+  </si>
+  <si>
+    <t>player_0_board_35</t>
+  </si>
+  <si>
+    <t>player_0_board_36</t>
+  </si>
+  <si>
+    <t>player_0_board_37</t>
+  </si>
+  <si>
+    <t>player_0_board_38</t>
+  </si>
+  <si>
+    <t>player_0_board_39</t>
+  </si>
+  <si>
+    <t>player_0_board_41</t>
+  </si>
+  <si>
+    <t>player_0_board_42</t>
+  </si>
+  <si>
+    <t>player_0_board_43</t>
+  </si>
+  <si>
+    <t>player_0_board_44</t>
+  </si>
+  <si>
+    <t>player_0_board_45</t>
+  </si>
+  <si>
+    <t>player_0_board_46</t>
+  </si>
+  <si>
+    <t>player_1_board_1</t>
+  </si>
+  <si>
+    <t>player_1_board_2</t>
+  </si>
+  <si>
+    <t>player_1_board_3</t>
+  </si>
+  <si>
+    <t>player_1_board_4</t>
+  </si>
+  <si>
+    <t>player_1_board_5</t>
+  </si>
+  <si>
+    <t>player_1_board_6</t>
+  </si>
+  <si>
+    <t>player_1_board_8</t>
+  </si>
+  <si>
+    <t>player_1_board_9</t>
+  </si>
+  <si>
+    <t>player_1_board_10</t>
+  </si>
+  <si>
+    <t>player_1_board_11</t>
+  </si>
+  <si>
+    <t>player_1_board_12</t>
+  </si>
+  <si>
+    <t>player_1_board_13</t>
+  </si>
+  <si>
+    <t>player_1_board_14</t>
+  </si>
+  <si>
+    <t>player_1_board_15</t>
+  </si>
+  <si>
+    <t>player_1_board_16</t>
+  </si>
+  <si>
+    <t>player_1_board_17</t>
+  </si>
+  <si>
+    <t>player_1_board_18</t>
+  </si>
+  <si>
+    <t>player_1_board_19</t>
+  </si>
+  <si>
+    <t>player_1_board_20</t>
+  </si>
+  <si>
+    <t>player_1_board_21</t>
+  </si>
+  <si>
+    <t>player_1_board_22</t>
+  </si>
+  <si>
+    <t>player_1_board_23</t>
+  </si>
+  <si>
+    <t>player_1_board_24</t>
+  </si>
+  <si>
+    <t>player_1_board_25</t>
+  </si>
+  <si>
+    <t>player_1_board_26</t>
+  </si>
+  <si>
+    <t>player_1_board_27</t>
+  </si>
+  <si>
+    <t>player_1_board_28</t>
+  </si>
+  <si>
+    <t>player_1_board_29</t>
+  </si>
+  <si>
+    <t>player_1_board_30</t>
+  </si>
+  <si>
+    <t>player_1_board_31</t>
+  </si>
+  <si>
+    <t>player_1_board_32</t>
+  </si>
+  <si>
+    <t>player_1_board_33</t>
+  </si>
+  <si>
+    <t>player_1_board_34</t>
+  </si>
+  <si>
+    <t>player_1_board_35</t>
+  </si>
+  <si>
+    <t>player_1_board_36</t>
+  </si>
+  <si>
+    <t>player_1_board_37</t>
+  </si>
+  <si>
+    <t>player_1_board_38</t>
+  </si>
+  <si>
+    <t>player_1_board_39</t>
+  </si>
+  <si>
+    <t>player_1_board_41</t>
+  </si>
+  <si>
+    <t>player_1_board_42</t>
+  </si>
+  <si>
+    <t>player_1_board_43</t>
+  </si>
+  <si>
+    <t>player_1_board_44</t>
+  </si>
+  <si>
+    <t>player_1_board_45</t>
+  </si>
+  <si>
+    <t>player_1_board_46</t>
+  </si>
+  <si>
+    <t>player_2_board_1</t>
+  </si>
+  <si>
+    <t>player_2_board_2</t>
+  </si>
+  <si>
+    <t>player_2_board_3</t>
+  </si>
+  <si>
+    <t>player_2_board_4</t>
+  </si>
+  <si>
+    <t>player_2_board_5</t>
+  </si>
+  <si>
+    <t>player_2_board_6</t>
+  </si>
+  <si>
+    <t>player_2_board_8</t>
+  </si>
+  <si>
+    <t>player_2_board_9</t>
+  </si>
+  <si>
+    <t>player_2_board_10</t>
+  </si>
+  <si>
+    <t>player_2_board_11</t>
+  </si>
+  <si>
+    <t>player_2_board_12</t>
+  </si>
+  <si>
+    <t>player_2_board_13</t>
+  </si>
+  <si>
+    <t>player_2_board_14</t>
+  </si>
+  <si>
+    <t>player_2_board_15</t>
+  </si>
+  <si>
+    <t>player_2_board_16</t>
+  </si>
+  <si>
+    <t>player_2_board_17</t>
+  </si>
+  <si>
+    <t>player_2_board_18</t>
+  </si>
+  <si>
+    <t>player_2_board_19</t>
+  </si>
+  <si>
+    <t>player_2_board_20</t>
+  </si>
+  <si>
+    <t>player_2_board_21</t>
+  </si>
+  <si>
+    <t>player_2_board_22</t>
+  </si>
+  <si>
+    <t>player_2_board_23</t>
+  </si>
+  <si>
+    <t>player_2_board_24</t>
+  </si>
+  <si>
+    <t>player_2_board_25</t>
+  </si>
+  <si>
+    <t>player_2_board_26</t>
+  </si>
+  <si>
+    <t>player_2_board_27</t>
+  </si>
+  <si>
+    <t>player_2_board_28</t>
+  </si>
+  <si>
+    <t>player_2_board_29</t>
+  </si>
+  <si>
+    <t>player_2_board_30</t>
+  </si>
+  <si>
+    <t>player_2_board_31</t>
+  </si>
+  <si>
+    <t>player_2_board_32</t>
+  </si>
+  <si>
+    <t>player_2_board_33</t>
+  </si>
+  <si>
+    <t>player_2_board_34</t>
+  </si>
+  <si>
+    <t>player_2_board_35</t>
+  </si>
+  <si>
+    <t>player_2_board_36</t>
+  </si>
+  <si>
+    <t>player_2_board_37</t>
+  </si>
+  <si>
+    <t>player_2_board_38</t>
+  </si>
+  <si>
+    <t>player_2_board_39</t>
+  </si>
+  <si>
+    <t>player_2_board_41</t>
+  </si>
+  <si>
+    <t>player_2_board_42</t>
+  </si>
+  <si>
+    <t>player_2_board_43</t>
+  </si>
+  <si>
+    <t>player_2_board_44</t>
+  </si>
+  <si>
+    <t>player_2_board_45</t>
+  </si>
+  <si>
+    <t>player_2_board_46</t>
+  </si>
+  <si>
+    <t>player_3_board_1</t>
+  </si>
+  <si>
+    <t>player_3_board_2</t>
+  </si>
+  <si>
+    <t>player_3_board_3</t>
+  </si>
+  <si>
+    <t>player_3_board_4</t>
+  </si>
+  <si>
+    <t>player_3_board_5</t>
+  </si>
+  <si>
+    <t>player_3_board_6</t>
+  </si>
+  <si>
+    <t>player_3_board_8</t>
+  </si>
+  <si>
+    <t>player_3_board_9</t>
+  </si>
+  <si>
+    <t>player_3_board_10</t>
+  </si>
+  <si>
+    <t>player_3_board_11</t>
+  </si>
+  <si>
+    <t>player_3_board_12</t>
+  </si>
+  <si>
+    <t>player_3_board_13</t>
+  </si>
+  <si>
+    <t>player_3_board_14</t>
+  </si>
+  <si>
+    <t>player_3_board_15</t>
+  </si>
+  <si>
+    <t>player_3_board_16</t>
+  </si>
+  <si>
+    <t>player_3_board_17</t>
+  </si>
+  <si>
+    <t>player_3_board_18</t>
+  </si>
+  <si>
+    <t>player_3_board_19</t>
+  </si>
+  <si>
+    <t>player_3_board_20</t>
+  </si>
+  <si>
+    <t>player_3_board_21</t>
+  </si>
+  <si>
+    <t>player_3_board_22</t>
+  </si>
+  <si>
+    <t>player_3_board_23</t>
+  </si>
+  <si>
+    <t>player_3_board_24</t>
+  </si>
+  <si>
+    <t>player_3_board_25</t>
+  </si>
+  <si>
+    <t>player_3_board_26</t>
+  </si>
+  <si>
+    <t>player_3_board_27</t>
+  </si>
+  <si>
+    <t>player_3_board_28</t>
+  </si>
+  <si>
+    <t>player_3_board_29</t>
+  </si>
+  <si>
+    <t>player_3_board_30</t>
+  </si>
+  <si>
+    <t>player_3_board_31</t>
+  </si>
+  <si>
+    <t>player_3_board_32</t>
+  </si>
+  <si>
+    <t>player_3_board_33</t>
+  </si>
+  <si>
+    <t>player_3_board_34</t>
+  </si>
+  <si>
+    <t>player_3_board_35</t>
+  </si>
+  <si>
+    <t>player_3_board_36</t>
+  </si>
+  <si>
+    <t>player_3_board_37</t>
+  </si>
+  <si>
+    <t>player_3_board_38</t>
+  </si>
+  <si>
+    <t>player_3_board_39</t>
+  </si>
+  <si>
+    <t>player_3_board_41</t>
+  </si>
+  <si>
+    <t>player_3_board_42</t>
+  </si>
+  <si>
+    <t>player_3_board_43</t>
+  </si>
+  <si>
+    <t>player_3_board_44</t>
+  </si>
+  <si>
+    <t>player_3_board_45</t>
+  </si>
+  <si>
+    <t>player_3_board_46</t>
+  </si>
+  <si>
+    <t>player_4_board_1</t>
+  </si>
+  <si>
+    <t>player_4_board_2</t>
+  </si>
+  <si>
+    <t>player_4_board_3</t>
+  </si>
+  <si>
+    <t>player_4_board_4</t>
+  </si>
+  <si>
+    <t>player_4_board_5</t>
+  </si>
+  <si>
+    <t>player_4_board_6</t>
+  </si>
+  <si>
+    <t>player_4_board_8</t>
+  </si>
+  <si>
+    <t>player_4_board_9</t>
+  </si>
+  <si>
+    <t>player_4_board_10</t>
+  </si>
+  <si>
+    <t>player_4_board_11</t>
+  </si>
+  <si>
+    <t>player_4_board_12</t>
+  </si>
+  <si>
+    <t>player_4_board_13</t>
+  </si>
+  <si>
+    <t>player_4_board_14</t>
+  </si>
+  <si>
+    <t>player_4_board_15</t>
+  </si>
+  <si>
+    <t>player_4_board_16</t>
+  </si>
+  <si>
+    <t>player_4_board_17</t>
+  </si>
+  <si>
+    <t>player_4_board_18</t>
+  </si>
+  <si>
+    <t>player_4_board_19</t>
+  </si>
+  <si>
+    <t>player_4_board_20</t>
+  </si>
+  <si>
+    <t>player_4_board_21</t>
+  </si>
+  <si>
+    <t>player_4_board_22</t>
+  </si>
+  <si>
+    <t>player_4_board_23</t>
+  </si>
+  <si>
+    <t>player_4_board_24</t>
+  </si>
+  <si>
+    <t>player_4_board_25</t>
+  </si>
+  <si>
+    <t>player_4_board_26</t>
+  </si>
+  <si>
+    <t>player_4_board_27</t>
+  </si>
+  <si>
+    <t>player_4_board_28</t>
+  </si>
+  <si>
+    <t>player_4_board_29</t>
+  </si>
+  <si>
+    <t>player_4_board_30</t>
+  </si>
+  <si>
+    <t>player_4_board_31</t>
+  </si>
+  <si>
+    <t>player_4_board_32</t>
+  </si>
+  <si>
+    <t>player_4_board_33</t>
+  </si>
+  <si>
+    <t>player_4_board_34</t>
+  </si>
+  <si>
+    <t>player_4_board_35</t>
+  </si>
+  <si>
+    <t>player_4_board_36</t>
+  </si>
+  <si>
+    <t>player_4_board_37</t>
+  </si>
+  <si>
+    <t>player_4_board_38</t>
+  </si>
+  <si>
+    <t>player_4_board_39</t>
+  </si>
+  <si>
+    <t>player_4_board_41</t>
+  </si>
+  <si>
+    <t>player_4_board_42</t>
+  </si>
+  <si>
+    <t>player_4_board_43</t>
+  </si>
+  <si>
+    <t>player_4_board_44</t>
+  </si>
+  <si>
+    <t>player_4_board_45</t>
+  </si>
+  <si>
+    <t>player_4_board_46</t>
+  </si>
+  <si>
+    <t>player_5_board_1</t>
+  </si>
+  <si>
+    <t>player_5_board_2</t>
+  </si>
+  <si>
+    <t>player_5_board_3</t>
+  </si>
+  <si>
+    <t>player_5_board_4</t>
+  </si>
+  <si>
+    <t>player_5_board_5</t>
+  </si>
+  <si>
+    <t>player_5_board_6</t>
+  </si>
+  <si>
+    <t>player_5_board_8</t>
+  </si>
+  <si>
+    <t>player_5_board_9</t>
+  </si>
+  <si>
+    <t>player_5_board_10</t>
+  </si>
+  <si>
+    <t>player_5_board_11</t>
+  </si>
+  <si>
+    <t>player_5_board_12</t>
+  </si>
+  <si>
+    <t>player_5_board_13</t>
+  </si>
+  <si>
+    <t>player_5_board_14</t>
+  </si>
+  <si>
+    <t>player_5_board_15</t>
+  </si>
+  <si>
+    <t>player_5_board_16</t>
+  </si>
+  <si>
+    <t>player_5_board_17</t>
+  </si>
+  <si>
+    <t>player_5_board_18</t>
+  </si>
+  <si>
+    <t>player_5_board_19</t>
+  </si>
+  <si>
+    <t>player_5_board_20</t>
+  </si>
+  <si>
+    <t>player_5_board_21</t>
+  </si>
+  <si>
+    <t>player_5_board_22</t>
+  </si>
+  <si>
+    <t>player_5_board_23</t>
+  </si>
+  <si>
+    <t>player_5_board_24</t>
+  </si>
+  <si>
+    <t>player_5_board_25</t>
+  </si>
+  <si>
+    <t>player_5_board_26</t>
+  </si>
+  <si>
+    <t>player_5_board_27</t>
+  </si>
+  <si>
+    <t>player_5_board_28</t>
+  </si>
+  <si>
+    <t>player_5_board_29</t>
+  </si>
+  <si>
+    <t>player_5_board_30</t>
+  </si>
+  <si>
+    <t>player_5_board_31</t>
+  </si>
+  <si>
+    <t>player_5_board_32</t>
+  </si>
+  <si>
+    <t>player_5_board_33</t>
+  </si>
+  <si>
+    <t>player_5_board_34</t>
+  </si>
+  <si>
+    <t>player_5_board_35</t>
+  </si>
+  <si>
+    <t>player_5_board_36</t>
+  </si>
+  <si>
+    <t>player_5_board_37</t>
+  </si>
+  <si>
+    <t>player_5_board_38</t>
+  </si>
+  <si>
+    <t>player_5_board_39</t>
+  </si>
+  <si>
+    <t>player_5_board_41</t>
+  </si>
+  <si>
+    <t>player_5_board_42</t>
+  </si>
+  <si>
+    <t>player_5_board_43</t>
+  </si>
+  <si>
+    <t>player_5_board_44</t>
+  </si>
+  <si>
+    <t>player_5_board_45</t>
+  </si>
+  <si>
+    <t>player_5_board_46</t>
+  </si>
+  <si>
+    <t>player_6_board_1</t>
+  </si>
+  <si>
+    <t>player_6_board_2</t>
+  </si>
+  <si>
+    <t>player_6_board_3</t>
+  </si>
+  <si>
+    <t>player_6_board_4</t>
+  </si>
+  <si>
+    <t>player_6_board_5</t>
+  </si>
+  <si>
+    <t>player_6_board_6</t>
+  </si>
+  <si>
+    <t>player_6_board_8</t>
+  </si>
+  <si>
+    <t>player_6_board_9</t>
+  </si>
+  <si>
+    <t>player_6_board_10</t>
+  </si>
+  <si>
+    <t>player_6_board_11</t>
+  </si>
+  <si>
+    <t>player_6_board_12</t>
+  </si>
+  <si>
+    <t>player_6_board_13</t>
+  </si>
+  <si>
+    <t>player_6_board_14</t>
+  </si>
+  <si>
+    <t>player_6_board_15</t>
+  </si>
+  <si>
+    <t>player_6_board_16</t>
+  </si>
+  <si>
+    <t>player_6_board_17</t>
+  </si>
+  <si>
+    <t>player_6_board_18</t>
+  </si>
+  <si>
+    <t>player_6_board_19</t>
+  </si>
+  <si>
+    <t>player_6_board_20</t>
+  </si>
+  <si>
+    <t>player_6_board_21</t>
+  </si>
+  <si>
+    <t>player_6_board_22</t>
+  </si>
+  <si>
+    <t>player_6_board_23</t>
+  </si>
+  <si>
+    <t>player_6_board_24</t>
+  </si>
+  <si>
+    <t>player_6_board_25</t>
+  </si>
+  <si>
+    <t>player_6_board_26</t>
+  </si>
+  <si>
+    <t>player_6_board_27</t>
+  </si>
+  <si>
+    <t>player_6_board_28</t>
+  </si>
+  <si>
+    <t>player_6_board_29</t>
+  </si>
+  <si>
+    <t>player_6_board_30</t>
+  </si>
+  <si>
+    <t>player_6_board_31</t>
+  </si>
+  <si>
+    <t>player_6_board_32</t>
+  </si>
+  <si>
+    <t>player_6_board_33</t>
+  </si>
+  <si>
+    <t>player_6_board_34</t>
+  </si>
+  <si>
+    <t>player_6_board_35</t>
+  </si>
+  <si>
+    <t>player_6_board_36</t>
+  </si>
+  <si>
+    <t>player_6_board_37</t>
+  </si>
+  <si>
+    <t>player_6_board_38</t>
+  </si>
+  <si>
+    <t>player_6_board_39</t>
+  </si>
+  <si>
+    <t>player_6_board_41</t>
+  </si>
+  <si>
+    <t>player_6_board_42</t>
+  </si>
+  <si>
+    <t>player_6_board_43</t>
+  </si>
+  <si>
+    <t>player_6_board_44</t>
+  </si>
+  <si>
+    <t>player_6_board_45</t>
+  </si>
+  <si>
+    <t>player_6_board_46</t>
+  </si>
+  <si>
+    <t>additional dwelling</t>
+  </si>
+  <si>
+    <t>room for 6th dwarf and increase population cap for active player by 1</t>
+  </si>
+  <si>
+    <t>room for 2 dwarfs</t>
+  </si>
+  <si>
+    <t>turn_number</t>
+  </si>
+  <si>
+    <t>0-11</t>
+  </si>
+  <si>
+    <t>turn_harvest_type</t>
+  </si>
+  <si>
+    <t>no_harvest=0,harvest=1,pay_1_food_per_dwarf=2,skip_field_or_breeding_phase=3</t>
+  </si>
+  <si>
+    <t>player_0_dwarf_0_weapon_level</t>
+  </si>
+  <si>
+    <t>waiting on population</t>
+  </si>
+  <si>
+    <t>waiting on action effects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1045,9 +2360,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1063,7 +2377,94 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1088,13 +2489,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1106,8 +2500,51 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE0C1FF"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFDDFF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1142,18 +2579,42 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF43FC91-BD33-47BC-8A3D-B36D4C583A8C}" name="Table2" displayName="Table2" ref="A1:G48" totalsRowShown="0">
-  <autoFilter ref="A1:G48" xr:uid="{41787FB8-FB5E-4606-976B-7A04AFB0B271}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF43FC91-BD33-47BC-8A3D-B36D4C583A8C}" name="Table2" displayName="Table2" ref="A1:I49" totalsRowShown="0">
+  <autoFilter ref="A1:I49" xr:uid="{41787FB8-FB5E-4606-976B-7A04AFB0B271}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2570AFC8-A8CE-497F-9D29-67ACD365D7EC}" name="name"/>
+    <tableColumn id="9" xr3:uid="{4DFC3439-29E6-49A6-9827-2E9F155C1989}" name="id"/>
     <tableColumn id="2" xr3:uid="{618001B4-5005-4BDC-8787-6811422386FD}" name="cost"/>
     <tableColumn id="3" xr3:uid="{8085FF69-4103-41E1-A9FE-1D73B458B74F}" name="points"/>
     <tableColumn id="4" xr3:uid="{7735BB73-9A0D-48B3-A123-64E57639FE3A}" name="effect"/>
     <tableColumn id="5" xr3:uid="{3EC408B7-B2F7-4534-A6D7-4944B2C36621}" name="points calc"/>
     <tableColumn id="6" xr3:uid="{A7E59216-2205-491A-935D-BBA4D997B072}" name="type"/>
     <tableColumn id="7" xr3:uid="{E88D110F-3D92-46E0-AE8F-184EB1B3BA8D}" name="comments"/>
+    <tableColumn id="10" xr3:uid="{3F6EBFBB-076A-4444-88E5-552D80024057}" name="done"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B53" xr:uid="{A4EB2E2A-BCC8-4327-8FD8-7B69602999D4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{77D932EC-F950-4633-9F30-A730A7504238}" name="Table4" displayName="Table4" ref="D1:E456" totalsRowShown="0">
+  <autoFilter ref="D1:E456" xr:uid="{511D877F-1BB5-486F-9656-E73DB4A9680E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BE70E644-3C91-4E2C-B07E-4139E9BD8A62}" name="state value function input"/>
+    <tableColumn id="2" xr3:uid="{406CE6D9-66D9-476F-8289-C90B1DBBC893}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1456,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1495,18 +2956,18 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1518,23 +2979,23 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B3">
@@ -1552,7 +3013,7 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
       <c r="J3" t="b">
@@ -1560,8 +3021,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>71</v>
+      <c r="A4" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1573,21 +3034,21 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>77</v>
+      <c r="H4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>89</v>
+      <c r="A5" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1599,19 +3060,19 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>72</v>
+      <c r="A6" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1623,24 +3084,24 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>94</v>
+      <c r="A7" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1652,21 +3113,21 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
+      <c r="A8" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1678,22 +3139,22 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>87</v>
+      <c r="A9" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1702,7 +3163,7 @@
         <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1710,16 +3171,16 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>77</v>
+      <c r="H9" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>92</v>
+      <c r="A10" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1728,10 +3189,10 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1741,8 +3202,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>65</v>
+      <c r="A11" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1751,22 +3212,22 @@
         <v>-1</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>81</v>
+      <c r="A12" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1775,24 +3236,24 @@
         <v>-1</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>81</v>
+      <c r="A13" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1801,21 +3262,21 @@
         <v>-1</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>81</v>
+      <c r="A14" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1824,19 +3285,21 @@
         <v>-1</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>44</v>
+      <c r="A15" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -1848,24 +3311,24 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>322</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>77</v>
+        <v>319</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>83</v>
+      <c r="A16" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1877,21 +3340,21 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1900,15 +3363,15 @@
         <v>-1</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1921,21 +3384,24 @@
         <v>-1</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>5</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1947,16 +3413,16 @@
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1964,7 +3430,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1973,16 +3439,21 @@
         <v>-1</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -1994,21 +3465,24 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2017,15 +3491,15 @@
         <v>-1</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>5</v>
       </c>
       <c r="J22" t="b">
@@ -2051,11 +3525,16 @@
       <c r="F23" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -2064,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -2072,11 +3551,16 @@
       <c r="F24" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2085,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -2094,13 +3578,18 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2109,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>32</v>
@@ -2118,9 +3607,14 @@
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2133,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -2141,7 +3635,9 @@
       <c r="F27" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2154,17 +3650,19 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2186,9 +3684,11 @@
       <c r="F29" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2207,8 +3707,8 @@
       <c r="F30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>39</v>
+      <c r="H30" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2225,15 +3725,17 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2254,7 +3756,9 @@
       <c r="G32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2275,11 +3779,13 @@
       <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -2288,16 +3794,18 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -2309,15 +3817,17 @@
         <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2331,16 +3841,20 @@
       <c r="D38" t="s">
         <v>28</v>
       </c>
+      <c r="E38">
+        <f>COUNTIF(Table1[[action1]:[action2]], "take accumulated items")</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2348,62 +3862,62 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
         <v>108</v>
-      </c>
-      <c r="D41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
         <v>111</v>
-      </c>
-      <c r="D42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" t="s">
         <v>114</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2411,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,15 +3957,15 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C53" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2459,7 +3973,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2467,7 +3981,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -2478,14 +3992,26 @@
     <sortCondition ref="C31"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="receive">
+    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="take accumulated">
+      <formula>NOT(ISERROR(SEARCH("take accumulated",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="expedition">
+      <formula>NOT(ISERROR(SEARCH("expedition",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" stopIfTrue="1" operator="containsText" text="baby dwarf">
+      <formula>NOT(ISERROR(SEARCH("baby dwarf",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="furnish">
+      <formula>NOT(ISERROR(SEARCH("furnish",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="place a">
+      <formula>NOT(ISERROR(SEARCH("place a",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="receive">
       <formula>NOT(ISERROR(SEARCH("receive",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="pay">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="pay">
       <formula>NOT(ISERROR(SEARCH("pay",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="take accumulated">
-      <formula>NOT(ISERROR(SEARCH("take accumulated",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,867 +4024,1071 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03460E6A-234E-4B76-A2F7-FDC0B540496D}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="117.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="117.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" t="s">
         <v>237</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" t="s">
         <v>238</v>
       </c>
-      <c r="D1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>239</v>
       </c>
-      <c r="F1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>118</v>
       </c>
-      <c r="C2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>751</v>
+      </c>
+      <c r="G7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>127</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="D23">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>217</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11">
+      <c r="G41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12">
+      <c r="F42" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13">
+      <c r="F43" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F44" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
         <v>156</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22">
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>207</v>
-      </c>
-      <c r="F24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31">
+      <c r="F48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" t="s">
-        <v>213</v>
-      </c>
-      <c r="F33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F49" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" t="s">
         <v>181</v>
       </c>
-      <c r="B34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>232</v>
-      </c>
-      <c r="F44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" t="s">
-        <v>229</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>233</v>
-      </c>
-      <c r="F45" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" t="s">
-        <v>184</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:G48">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$F2="yellow"</formula>
+  <conditionalFormatting sqref="A2:I49">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$G2="yellow"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F2="green"</formula>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$G2="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$F2="red"</formula>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$G2="red"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3384,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3400,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3416,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,7 +5162,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3440,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +5178,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3456,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +5194,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,7 +5202,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +5210,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +5218,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +5226,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +5242,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +5250,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +5258,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3544,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +5282,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +5290,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3580,122 +5310,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
         <v>263</v>
-      </c>
-      <c r="B10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +5445,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3723,7 +5453,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3731,7 +5461,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3739,7 +5469,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3747,7 +5477,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3755,7 +5485,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3763,7 +5493,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3771,7 +5501,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3779,7 +5509,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3787,7 +5517,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3795,7 +5525,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -3803,7 +5533,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -3811,7 +5541,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3834,7 +5564,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -3842,7 +5572,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3850,7 +5580,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3858,7 +5588,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3866,7 +5596,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3874,7 +5604,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3882,7 +5612,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3890,7 +5620,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3898,7 +5628,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3906,7 +5636,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3933,134 +5663,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +5813,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4091,7 +5821,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B2">
         <v>-2</v>
@@ -4099,7 +5829,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -4107,7 +5837,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4115,7 +5845,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4123,7 +5853,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4131,7 +5861,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -4139,12 +5869,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4152,7 +5882,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B10">
         <v>-3</v>
@@ -4161,4 +5891,2556 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20D2824-5707-46D7-8DAF-6D8B18CD8D52}">
+  <dimension ref="A1:G456"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E2" t="s">
+        <v>754</v>
+      </c>
+      <c r="G2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>440</v>
+      </c>
+      <c r="E147" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="297" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="298" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="301" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="302" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="303" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="309" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="349" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D379" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="381" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="383" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="388" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="394" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D399" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="402" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D403" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="404" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D405" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D406" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="407" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D407" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D408" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D409" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D410" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D412" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D417" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="418" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D418" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D419" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="420" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D420" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="421" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D421" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D422" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="423" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D423" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D424" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="425" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D425" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D426" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="427" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D427" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="428" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D428" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="429" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D429" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="430" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D430" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="431" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D431" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="432" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D432" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="433" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D433" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="434" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D434" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="435" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D435" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="436" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D436" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="437" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D437" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="438" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D438" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="439" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D439" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="440" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D440" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="441" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D441" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="442" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D442" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="443" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D443" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D444" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="445" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D445" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="446" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D446" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="447" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D447" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="448" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D448" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D449" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D450" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D451" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D452" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D453" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D454" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D455" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D456" t="s">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastair\OneDrive\Documents\Creative\Programming\Python\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/Python/Caverna/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="102_{121A5001-816A-4708-9BBF-EAA567F93A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{65B3DB59-DCF8-4B96-BA9E-3AEB1D5EB283}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="102_{121A5001-816A-4708-9BBF-EAA567F93A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9D1F18B9-3F2F-4016-9D2D-297C1F9BD40A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="763">
   <si>
     <t>name</t>
   </si>
@@ -2319,6 +2319,15 @@
   </si>
   <si>
     <t>waiting on action effects</t>
+  </si>
+  <si>
+    <t>waiting on purchase</t>
+  </si>
+  <si>
+    <t>waiting on receive</t>
+  </si>
+  <si>
+    <t>waiting on change food conversion rate</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2356,11 +2365,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2373,6 +2462,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4027,7 +4125,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4369,6 +4467,9 @@
       <c r="G14" t="s">
         <v>143</v>
       </c>
+      <c r="I14" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4389,6 +4490,9 @@
       <c r="G15" t="s">
         <v>143</v>
       </c>
+      <c r="I15" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4409,8 +4513,11 @@
       <c r="G16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -4430,7 +4537,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -4450,7 +4557,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -4470,7 +4577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -4490,7 +4597,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -4510,7 +4617,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -4530,7 +4637,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -4547,7 +4654,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -4567,7 +4674,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -4587,127 +4694,147 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="10">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="10">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="10">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="13">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="13">
         <v>2</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -5438,7 +5565,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastair\OneDrive\Documents\Creative\Programming\Python\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="102_{121A5001-816A-4708-9BBF-EAA567F93A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{65B3DB59-DCF8-4B96-BA9E-3AEB1D5EB283}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F82B9-6E2C-4068-AA04-9F654C7652B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -2377,7 +2377,139 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2486,55 +2618,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2597,11 +2680,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A1:B53" xr:uid="{A4EB2E2A-BCC8-4327-8FD8-7B69602999D4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2917,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3992,30 +4075,44 @@
     <sortCondition ref="C31"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
-    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="take accumulated">
+    <cfRule type="containsText" dxfId="10" priority="5" stopIfTrue="1" operator="containsText" text="take accumulated">
       <formula>NOT(ISERROR(SEARCH("take accumulated",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="expedition">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="expedition">
       <formula>NOT(ISERROR(SEARCH("expedition",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" stopIfTrue="1" operator="containsText" text="baby dwarf">
+    <cfRule type="containsText" dxfId="8" priority="7" stopIfTrue="1" operator="containsText" text="baby dwarf">
       <formula>NOT(ISERROR(SEARCH("baby dwarf",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="furnish">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="furnish">
       <formula>NOT(ISERROR(SEARCH("furnish",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="place a">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="place a">
       <formula>NOT(ISERROR(SEARCH("place a",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="receive">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="receive">
       <formula>NOT(ISERROR(SEARCH("receive",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="pay">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="pay">
       <formula>NOT(ISERROR(SEARCH("pay",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C35">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -4026,7 +4123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03460E6A-234E-4B76-A2F7-FDC0B540496D}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5081,13 +5178,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I49">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$G2="yellow"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$G2="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>$G2="red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5557,7 +5654,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/Python/Caverna/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="102_{121A5001-816A-4708-9BBF-EAA567F93A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9D1F18B9-3F2F-4016-9D2D-297C1F9BD40A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5893883-84DA-4EC4-9CF0-CC3E10C62578}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="764">
   <si>
     <t>name</t>
   </si>
@@ -2328,6 +2328,9 @@
   </si>
   <si>
     <t>waiting on change food conversion rate</t>
+  </si>
+  <si>
+    <t>waiting on conversion</t>
   </si>
 </sst>
 </file>
@@ -3015,7 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46:D51"/>
     </sheetView>
   </sheetViews>
@@ -4124,8 +4127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03460E6A-234E-4B76-A2F7-FDC0B540496D}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,7 +4743,9 @@
         <v>143</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -4857,7 +4862,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -4880,7 +4885,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -4926,7 +4931,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -4946,7 +4951,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -5006,7 +5011,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -5025,8 +5030,11 @@
       <c r="G40" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -5046,7 +5054,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -5086,7 +5094,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -5106,7 +5114,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -5146,7 +5154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -5166,7 +5174,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>224</v>
       </c>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/Python/Caverna/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F82B9-6E2C-4068-AA04-9F654C7652B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="114_{E01527BB-0BB8-414C-97A2-6D3BF0239F55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{23D8E027-1C59-47C1-9CF8-A55D8659A361}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="764">
   <si>
     <t>name</t>
   </si>
@@ -959,9 +960,6 @@
     <t>breeding phase</t>
   </si>
   <si>
-    <t>gain 1 animal for every animal for which you have 1 pair</t>
-  </si>
-  <si>
     <t>per each animal and each dog</t>
   </si>
   <si>
@@ -2319,6 +2317,21 @@
   </si>
   <si>
     <t>waiting on action effects</t>
+  </si>
+  <si>
+    <t>7C3 possible harvest phases</t>
+  </si>
+  <si>
+    <t>3! Possible level 1 card draws</t>
+  </si>
+  <si>
+    <t>3! Possible level 4 card draws</t>
+  </si>
+  <si>
+    <t>3! Possible level 5 card draws</t>
+  </si>
+  <si>
+    <t>2! Possible level 2 card draws</t>
   </si>
 </sst>
 </file>
@@ -2377,14 +2390,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="18">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2399,65 +2437,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2597,27 +2582,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2680,11 +2644,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:B53" xr:uid="{A4EB2E2A-BCC8-4327-8FD8-7B69602999D4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3000,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3045,7 +3009,7 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3295,7 +3259,7 @@
         <v>-1</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -3400,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>75</v>
@@ -3672,7 +3636,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -3906,7 +3870,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>283</v>
@@ -3988,9 +3952,6 @@
       <c r="D44" t="s">
         <v>305</v>
       </c>
-      <c r="E44" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -4002,6 +3963,12 @@
       <c r="D46" t="s">
         <v>295</v>
       </c>
+      <c r="E46" t="s">
+        <v>759</v>
+      </c>
+      <c r="F46">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47">
@@ -4010,6 +3977,13 @@
       <c r="D47" t="s">
         <v>107</v>
       </c>
+      <c r="E47" t="s">
+        <v>760</v>
+      </c>
+      <c r="F47">
+        <f>FACT(3)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48">
@@ -4018,32 +3992,57 @@
       <c r="D48" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>763</v>
+      </c>
+      <c r="F48">
+        <f>FACT(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>761</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F50" si="0">FACT(3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>762</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>PRODUCT(F46:F50)</f>
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>299</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>301</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -4075,40 +4074,40 @@
     <sortCondition ref="C31"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
-    <cfRule type="containsText" dxfId="10" priority="5" stopIfTrue="1" operator="containsText" text="take accumulated">
+    <cfRule type="containsText" dxfId="13" priority="5" stopIfTrue="1" operator="containsText" text="take accumulated">
       <formula>NOT(ISERROR(SEARCH("take accumulated",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="expedition">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="expedition">
       <formula>NOT(ISERROR(SEARCH("expedition",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" stopIfTrue="1" operator="containsText" text="baby dwarf">
+    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="baby dwarf">
       <formula>NOT(ISERROR(SEARCH("baby dwarf",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="furnish">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="furnish">
       <formula>NOT(ISERROR(SEARCH("furnish",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="place a">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="place a">
       <formula>NOT(ISERROR(SEARCH("place a",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="receive">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="receive">
       <formula>NOT(ISERROR(SEARCH("receive",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="pay">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pay">
       <formula>NOT(ISERROR(SEARCH("pay",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C35">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s">
         <v>234</v>
@@ -4165,7 +4164,7 @@
         <v>239</v>
       </c>
       <c r="I1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4188,7 +4187,7 @@
         <v>292</v>
       </c>
       <c r="I2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4211,7 +4210,7 @@
         <v>292</v>
       </c>
       <c r="I3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4234,7 +4233,7 @@
         <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4257,7 +4256,7 @@
         <v>292</v>
       </c>
       <c r="I5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4274,18 +4273,18 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G6" t="s">
         <v>292</v>
       </c>
       <c r="I6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4297,13 +4296,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G7" t="s">
         <v>292</v>
       </c>
       <c r="I7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4418,7 +4417,7 @@
         <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5178,13 +5177,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I49">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$G2="yellow"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G2="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$G2="red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5910,7 +5909,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -5918,7 +5917,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2">
         <v>-2</v>
@@ -5926,7 +5925,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -5934,7 +5933,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5942,7 +5941,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5950,7 +5949,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5958,7 +5957,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -5966,12 +5965,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5979,7 +5978,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10">
         <v>-3</v>
@@ -6008,16 +6007,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
-        <v>328</v>
-      </c>
       <c r="E1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6025,13 +6024,13 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E2" t="s">
         <v>753</v>
-      </c>
-      <c r="E2" t="s">
-        <v>754</v>
       </c>
       <c r="G2" t="s">
         <v>295</v>
@@ -6042,13 +6041,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E3" t="s">
         <v>755</v>
-      </c>
-      <c r="E3" t="s">
-        <v>756</v>
       </c>
       <c r="G3" t="s">
         <v>107</v>
@@ -6059,13 +6058,13 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G4" t="s">
         <v>296</v>
@@ -6076,7 +6075,7 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -6090,7 +6089,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
@@ -6104,7 +6103,7 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
@@ -6118,7 +6117,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -6129,7 +6128,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
         <v>92</v>
@@ -6140,7 +6139,7 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -6151,7 +6150,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
@@ -6162,7 +6161,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
@@ -6173,7 +6172,7 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -6184,7 +6183,7 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
@@ -6195,7 +6194,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
         <v>79</v>
@@ -6206,7 +6205,7 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
@@ -6217,7 +6216,7 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -6228,7 +6227,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -6239,7 +6238,7 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
@@ -6250,7 +6249,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -6261,7 +6260,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -6272,7 +6271,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
@@ -6283,7 +6282,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -6294,7 +6293,7 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -6305,7 +6304,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -6316,7 +6315,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -6327,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -6338,7 +6337,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
         <v>51</v>
@@ -6349,7 +6348,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -6360,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -6371,7 +6370,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -6382,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -6393,7 +6392,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -6404,7 +6403,7 @@
         <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -6415,7 +6414,7 @@
         <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -6433,2103 +6432,2103 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" t="s">
         <v>330</v>
-      </c>
-      <c r="E38" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="121" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
+        <v>439</v>
+      </c>
+      <c r="E147" t="s">
         <v>440</v>
-      </c>
-      <c r="E147" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="157" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="177" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="178" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="180" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="181" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="195" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="211" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="214" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="217" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="220" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="221" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="222" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="223" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="224" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="225" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="226" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="227" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="228" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="229" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="231" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="232" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="233" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="234" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="235" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="236" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="237" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="239" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="241" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="242" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="243" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="244" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="245" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="247" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="248" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="250" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="251" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="253" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="254" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="255" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="257" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="258" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="259" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="260" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="262" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="263" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="264" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="265" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="266" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="267" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="268" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="269" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="270" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="271" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="272" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="273" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="274" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="276" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="277" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="278" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="280" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="282" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="284" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="285" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="286" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="288" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="290" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="291" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="292" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="293" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="295" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="296" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="297" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="298" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="299" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="300" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="301" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="302" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="303" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="304" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="305" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="306" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="307" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="308" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="309" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="310" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="311" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="313" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="314" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="315" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="316" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="317" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="318" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="319" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="320" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="321" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="322" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="323" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="324" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="325" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="327" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="329" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="330" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="331" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="332" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="333" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="334" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="335" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="337" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="338" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="339" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="340" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="341" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="342" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="343" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="344" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="345" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="346" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="347" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="348" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="349" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="350" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="351" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="352" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="353" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="354" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="355" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="356" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="357" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="358" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="359" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="360" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="361" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="362" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="363" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="364" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="365" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="366" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="367" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="368" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="369" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="370" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="371" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="372" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="373" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="374" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="375" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="376" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="377" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="379" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="380" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="381" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="382" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="384" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="385" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="386" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="387" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="388" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="390" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="391" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="392" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="393" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="394" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="395" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="396" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="397" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="398" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="399" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="400" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="401" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="402" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="403" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="404" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="405" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="406" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="407" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="408" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="409" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="410" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="411" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="412" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="413" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="414" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="415" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="416" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="417" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="418" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="419" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="420" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="421" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="422" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="423" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="424" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="425" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="426" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="427" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="428" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="429" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="430" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="431" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="432" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="433" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="434" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="435" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="436" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="437" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="438" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="439" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="440" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="441" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="442" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="443" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="444" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="445" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="446" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="447" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="448" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D448" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/Python/Caverna/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5893883-84DA-4EC4-9CF0-CC3E10C62578}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="114_{C426673E-442A-4CDF-8DBD-36759553DB45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A4615BE3-3550-463E-9213-EB62A04BF474}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -2360,7 +2360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2437,22 +2437,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2473,7 +2462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3018,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03460E6A-234E-4B76-A2F7-FDC0B540496D}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,6 +4527,9 @@
       <c r="G17" t="s">
         <v>143</v>
       </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4559,6 +4550,9 @@
       <c r="G18" t="s">
         <v>143</v>
       </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4579,6 +4573,9 @@
       <c r="G19" t="s">
         <v>143</v>
       </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4599,6 +4596,9 @@
       <c r="G20" t="s">
         <v>143</v>
       </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4619,6 +4619,9 @@
       <c r="G21" t="s">
         <v>143</v>
       </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4639,6 +4642,9 @@
       <c r="G22" t="s">
         <v>143</v>
       </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4656,6 +4662,9 @@
       <c r="G23" t="s">
         <v>143</v>
       </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4676,6 +4685,9 @@
       <c r="G24" t="s">
         <v>143</v>
       </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4696,6 +4708,9 @@
       <c r="G25" t="s">
         <v>143</v>
       </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -4768,7 +4783,9 @@
         <v>143</v>
       </c>
       <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -4791,7 +4808,9 @@
         <v>143</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -4814,7 +4833,9 @@
         <v>143</v>
       </c>
       <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -4837,7 +4858,9 @@
         <v>143</v>
       </c>
       <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4861,6 +4884,9 @@
       <c r="G32" t="s">
         <v>181</v>
       </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4884,6 +4910,9 @@
       <c r="G33" t="s">
         <v>181</v>
       </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4910,6 +4939,9 @@
       <c r="H34" t="s">
         <v>211</v>
       </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4930,6 +4962,9 @@
       <c r="G35" t="s">
         <v>181</v>
       </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4950,6 +4985,9 @@
       <c r="G36" t="s">
         <v>181</v>
       </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4970,6 +5008,9 @@
       <c r="G37" t="s">
         <v>181</v>
       </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4990,6 +5031,9 @@
       <c r="G38" t="s">
         <v>181</v>
       </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -5009,6 +5053,9 @@
       </c>
       <c r="G39" t="s">
         <v>181</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/Python/Caverna/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="114_{C426673E-442A-4CDF-8DBD-36759553DB45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A4615BE3-3550-463E-9213-EB62A04BF474}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F04AB9-A307-4E70-BA75-A470677D11FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="772">
   <si>
     <t>name</t>
   </si>
@@ -2331,6 +2331,30 @@
   </si>
   <si>
     <t>waiting on conversion</t>
+  </si>
+  <si>
+    <t>waiting on animalStorageEffects</t>
+  </si>
+  <si>
+    <t>animal storage</t>
+  </si>
+  <si>
+    <t>game change</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>point</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2389,30 +2413,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2441,7 +2445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2457,11 +2461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2668,9 +2670,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF43FC91-BD33-47BC-8A3D-B36D4C583A8C}" name="Table2" displayName="Table2" ref="A1:I49" totalsRowShown="0">
-  <autoFilter ref="A1:I49" xr:uid="{41787FB8-FB5E-4606-976B-7A04AFB0B271}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF43FC91-BD33-47BC-8A3D-B36D4C583A8C}" name="Table2" displayName="Table2" ref="A1:J49" totalsRowShown="0">
+  <autoFilter ref="A1:J49" xr:uid="{41787FB8-FB5E-4606-976B-7A04AFB0B271}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2570AFC8-A8CE-497F-9D29-67ACD365D7EC}" name="name"/>
     <tableColumn id="9" xr3:uid="{4DFC3439-29E6-49A6-9827-2E9F155C1989}" name="id"/>
     <tableColumn id="2" xr3:uid="{618001B4-5005-4BDC-8787-6811422386FD}" name="cost"/>
@@ -2680,6 +2682,7 @@
     <tableColumn id="6" xr3:uid="{A7E59216-2205-491A-935D-BBA4D997B072}" name="type"/>
     <tableColumn id="7" xr3:uid="{E88D110F-3D92-46E0-AE8F-184EB1B3BA8D}" name="comments"/>
     <tableColumn id="10" xr3:uid="{3F6EBFBB-076A-4444-88E5-552D80024057}" name="done"/>
+    <tableColumn id="8" xr3:uid="{88964FF2-980A-4E99-B5E8-32E5DC7ABEE8}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3006,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03460E6A-234E-4B76-A2F7-FDC0B540496D}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,7 +4134,7 @@
     <col min="8" max="8" width="4.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4159,8 +4162,11 @@
       <c r="I1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4182,8 +4188,11 @@
       <c r="I2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -4205,8 +4214,11 @@
       <c r="I3" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4228,8 +4240,11 @@
       <c r="I4" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -4251,8 +4266,11 @@
       <c r="I5" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -4274,8 +4292,11 @@
       <c r="I6" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>750</v>
       </c>
@@ -4297,8 +4318,11 @@
       <c r="I7" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -4317,11 +4341,14 @@
       <c r="G8" t="s">
         <v>143</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>764</v>
+      </c>
+      <c r="J8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -4340,11 +4367,14 @@
       <c r="G9" t="s">
         <v>143</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>764</v>
+      </c>
+      <c r="J9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -4363,11 +4393,14 @@
       <c r="G10" t="s">
         <v>143</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>764</v>
+      </c>
+      <c r="J10" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -4389,8 +4422,11 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -4412,8 +4448,11 @@
       <c r="I12" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -4438,8 +4477,11 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -4461,8 +4503,11 @@
       <c r="I14" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -4484,8 +4529,11 @@
       <c r="I15" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4507,8 +4555,11 @@
       <c r="I16" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -4530,8 +4581,11 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -4550,11 +4604,14 @@
       <c r="G18" t="s">
         <v>143</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>760</v>
+      </c>
+      <c r="J18" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -4573,11 +4630,14 @@
       <c r="G19" t="s">
         <v>143</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>763</v>
+      </c>
+      <c r="J19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -4599,8 +4659,11 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -4622,8 +4685,11 @@
       <c r="I21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -4645,8 +4711,11 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -4665,8 +4734,11 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -4688,8 +4760,11 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -4711,8 +4786,11 @@
       <c r="I25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>163</v>
       </c>
@@ -4733,136 +4811,154 @@
         <v>143</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="J26" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="J27" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>26</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>2</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="9"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="J28" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>2</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="9"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="J29" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>2</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="J30" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>29</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <v>2</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" t="b">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -4887,8 +4983,11 @@
       <c r="I32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -4913,8 +5012,11 @@
       <c r="I33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -4943,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -4962,11 +5064,14 @@
       <c r="G35" t="s">
         <v>181</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>763</v>
+      </c>
+      <c r="J35" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -4985,11 +5090,14 @@
       <c r="G36" t="s">
         <v>181</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>763</v>
+      </c>
+      <c r="J36" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -5008,11 +5116,14 @@
       <c r="G37" t="s">
         <v>181</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>763</v>
+      </c>
+      <c r="J37" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -5035,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -5058,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -5081,7 +5192,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>194</v>
       </c>
@@ -5100,8 +5211,14 @@
       <c r="G41" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -5120,8 +5237,11 @@
       <c r="G42" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -5140,8 +5260,11 @@
       <c r="G43" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -5160,8 +5283,11 @@
       <c r="G44" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -5180,8 +5306,11 @@
       <c r="G45" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -5200,8 +5329,11 @@
       <c r="G46" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -5220,8 +5352,11 @@
       <c r="G47" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>224</v>
       </c>
@@ -5240,8 +5375,11 @@
       <c r="G48" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>225</v>
       </c>
@@ -5259,6 +5397,9 @@
       </c>
       <c r="G49" t="s">
         <v>181</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastair\OneDrive\Documents\Creative\Programming\Python\Caverna\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F04AB9-A307-4E70-BA75-A470677D11FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="114_{275A6D94-B3F7-488C-94E2-523F26AB0EEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{70003811-37E1-4545-9F36-C764DEE64D50}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="773">
   <si>
     <t>name</t>
   </si>
@@ -2355,6 +2355,9 @@
   </si>
   <si>
     <t>point</t>
+  </si>
+  <si>
+    <t>has additional player input</t>
   </si>
 </sst>
 </file>
@@ -2468,7 +2471,136 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2556,76 +2688,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2648,17 +2710,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D9CC4E6-CB70-411E-A7A4-573F16AAC537}" name="Table1" displayName="Table1" ref="A1:J35" totalsRowShown="0">
-  <autoFilter ref="A1:J35" xr:uid="{3766C5D4-C361-44B4-AD98-BAD8BD214D0C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D9CC4E6-CB70-411E-A7A4-573F16AAC537}" name="Table1" displayName="Table1" ref="A1:K35" totalsRowShown="0">
+  <autoFilter ref="A1:K35" xr:uid="{3766C5D4-C361-44B4-AD98-BAD8BD214D0C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J35">
     <sortCondition ref="C1:C35"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C63C2947-CB53-4FED-8AA1-F4692B2F0544}" name="name"/>
     <tableColumn id="12" xr3:uid="{07A1927E-5BC5-4873-BE73-7C4D05E7C17B}" name="index"/>
     <tableColumn id="2" xr3:uid="{D20C8DC8-C344-4F0E-A80E-B5D21D8FFF62}" name="level"/>
     <tableColumn id="3" xr3:uid="{05480EFE-21EA-4779-BF95-1552C84B764D}" name="action1"/>
     <tableColumn id="4" xr3:uid="{369B1A9F-9B11-4B6B-90A5-92BEAAA79F3E}" name="action2"/>
+    <tableColumn id="10" xr3:uid="{CF2796B3-55A6-4224-AC4C-4FC4120577F3}" name="has additional player input"/>
     <tableColumn id="5" xr3:uid="{EACB3DC4-A4BE-4E97-88C8-E052758BF9B2}" name="combine"/>
     <tableColumn id="6" xr3:uid="{8A41D580-580D-460C-983C-8B9CD0860671}" name="amount replenish accumulating spaces"/>
     <tableColumn id="7" xr3:uid="{E6EA3D5C-EA61-43F4-993A-A0421A275986}" name="number of players"/>
@@ -2689,11 +2752,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A1:B53" xr:uid="{A4EB2E2A-BCC8-4327-8FD8-7B69602999D4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3007,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,13 +3082,14 @@
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" customWidth="1"/>
     <col min="4" max="5" width="72" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="48.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3042,22 +3106,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3073,20 +3140,23 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J2" t="b">
+      <c r="K2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -3099,20 +3169,23 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="J3" t="b">
+      <c r="K3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -3128,17 +3201,20 @@
       <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J4" t="b">
+      <c r="K4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -3154,15 +3230,18 @@
       <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="J5" t="b">
+      <c r="I5" s="2"/>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -3178,20 +3257,23 @@
       <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="b">
+      <c r="K6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -3207,17 +3289,20 @@
       <c r="E7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" t="b">
+      <c r="K7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -3233,18 +3318,21 @@
       <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="J8" t="b">
+      <c r="I8" s="1"/>
+      <c r="K8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -3260,17 +3348,20 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J9" t="b">
+      <c r="K9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
@@ -3286,14 +3377,17 @@
       <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="b">
+      <c r="K10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -3309,15 +3403,18 @@
       <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="J11" t="b">
+      <c r="I11" s="1"/>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -3333,17 +3430,20 @@
       <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J12" t="b">
+      <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -3359,14 +3459,17 @@
       <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -3382,14 +3485,17 @@
       <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -3405,20 +3511,23 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J15" t="b">
+      <c r="K15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -3434,17 +3543,20 @@
       <c r="E16" t="s">
         <v>84</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -3460,12 +3572,15 @@
       <c r="E17" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3481,17 +3596,20 @@
       <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" t="b">
+      <c r="K18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -3507,20 +3625,23 @@
       <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J19" t="b">
+      <c r="K19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -3533,17 +3654,20 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="J20" t="b">
+      <c r="K20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3559,20 +3683,23 @@
       <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J21" t="b">
+      <c r="K21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3588,17 +3715,20 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>5</v>
       </c>
-      <c r="J22" t="b">
+      <c r="K22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3614,17 +3744,20 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J23" t="b">
+      <c r="K23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -3640,17 +3773,20 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J24" t="b">
+      <c r="K24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3666,20 +3802,23 @@
       <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J25" t="b">
+      <c r="K25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -3695,20 +3834,23 @@
       <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J26" t="b">
+      <c r="K26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3724,14 +3866,17 @@
       <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3747,17 +3892,20 @@
       <c r="E28" t="s">
         <v>100</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3773,17 +3921,20 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3796,14 +3947,17 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3819,17 +3973,20 @@
       <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3842,17 +3999,20 @@
       <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3868,14 +4028,17 @@
       <c r="E33" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3888,14 +4051,17 @@
       <c r="D34" t="s">
         <v>98</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -3911,22 +4077,25 @@
       <c r="E35" t="s">
         <v>96</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>50</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>320</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3938,7 +4107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3949,7 +4118,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -3957,7 +4126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -3968,7 +4137,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -3979,7 +4148,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -3990,7 +4159,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>304</v>
       </c>
@@ -4001,7 +4170,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -4012,7 +4181,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>1</v>
       </c>
@@ -4020,7 +4189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>2</v>
       </c>
@@ -4080,30 +4249,36 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
     <sortCondition ref="C31"/>
   </sortState>
-  <conditionalFormatting sqref="D2:E35">
-    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="take accumulated">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:F35">
+    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="take accumulated">
       <formula>NOT(ISERROR(SEARCH("take accumulated",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="expedition">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="expedition">
       <formula>NOT(ISERROR(SEARCH("expedition",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" stopIfTrue="1" operator="containsText" text="baby dwarf">
+    <cfRule type="containsText" dxfId="12" priority="4" stopIfTrue="1" operator="containsText" text="baby dwarf">
       <formula>NOT(ISERROR(SEARCH("baby dwarf",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="furnish">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="furnish">
       <formula>NOT(ISERROR(SEARCH("furnish",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="place a">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="place a">
       <formula>NOT(ISERROR(SEARCH("place a",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="receive">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="receive">
       <formula>NOT(ISERROR(SEARCH("receive",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="pay">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="pay">
       <formula>NOT(ISERROR(SEARCH("pay",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4119,7 +4294,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I49"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,13 +5579,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I49">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$G2="yellow"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$G2="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$G2="red"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/Python/Caverna/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F04AB9-A307-4E70-BA75-A470677D11FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{6EE0B46E-ECCF-4B67-8489-EDE125484DF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -4118,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03460E6A-234E-4B76-A2F7-FDC0B540496D}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b52fca1a386bca4b/Documents/Creative/Programming/Python/Caverna/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastair\OneDrive\Documents\Creative\Programming\Python\Caverna\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{6EE0B46E-ECCF-4B67-8489-EDE125484DF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="114_{6EE0B46E-ECCF-4B67-8489-EDE125484DF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FBDFB1F9-B7F0-4B1E-8E5F-65AF2EB21900}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5010" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="770">
   <si>
     <t>name</t>
   </si>
@@ -332,9 +332,6 @@
     <t>if player has more than 1 ruby mine then receive 1 ruby</t>
   </si>
   <si>
-    <t>if accumulated items is empty then 1 ruby and always 1 ruby</t>
-  </si>
-  <si>
     <t>pay 2 ore and receive 2 coins and 1 food and/or pay 2 ore and receive 2 coins and 1 food  and/or pay 2 ore and receive 2 coins and 1 food</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>either/or becomes and/or</t>
   </si>
   <si>
-    <t>twin tiles may overhang the edge</t>
-  </si>
-  <si>
     <t>carpenter</t>
   </si>
   <si>
@@ -641,9 +635,6 @@
     <t>3 food 1 wood</t>
   </si>
   <si>
-    <t>2 per overhanging twin tile</t>
-  </si>
-  <si>
     <t>at the start of every round receive 1 ore per donkey in an ore mine</t>
   </si>
   <si>
@@ -2355,6 +2346,9 @@
   </si>
   <si>
     <t>point</t>
+  </si>
+  <si>
+    <t>twin tiles may overhang the edge and receive 2 coin per each overhanging tile</t>
   </si>
 </sst>
 </file>
@@ -2468,7 +2462,215 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2577,55 +2779,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2689,11 +2842,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A1:B53" xr:uid="{A4EB2E2A-BCC8-4327-8FD8-7B69602999D4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3009,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3054,7 +3207,7 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3304,7 +3457,7 @@
         <v>-1</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
         <v>65</v>
@@ -3409,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>75</v>
@@ -3618,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -3626,7 +3779,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -3635,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -3644,7 +3797,7 @@
         <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -3673,7 +3826,7 @@
         <v>66</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -3681,7 +3834,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -3702,7 +3855,7 @@
         <v>67</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -3728,7 +3881,7 @@
         <v>7</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3742,16 +3895,16 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
         <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I28" t="s">
         <v>53</v>
@@ -3777,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I29" t="s">
         <v>52</v>
@@ -3822,11 +3975,8 @@
       <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="G31" t="s">
-        <v>97</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3849,7 +3999,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3872,7 +4022,7 @@
         <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3886,13 +4036,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3915,10 +4065,10 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3946,7 +4096,7 @@
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3954,62 +4104,62 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
         <v>106</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>107</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
         <v>109</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>110</v>
-      </c>
-      <c r="E42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
         <v>112</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>113</v>
-      </c>
-      <c r="E43" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4017,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,15 +4199,15 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C53" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4065,7 +4215,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -4073,7 +4223,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -4084,25 +4234,25 @@
     <sortCondition ref="C31"/>
   </sortState>
   <conditionalFormatting sqref="D2:E35">
-    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="take accumulated">
+    <cfRule type="containsText" dxfId="6" priority="3" stopIfTrue="1" operator="containsText" text="take accumulated">
       <formula>NOT(ISERROR(SEARCH("take accumulated",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="expedition">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="expedition">
       <formula>NOT(ISERROR(SEARCH("expedition",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" stopIfTrue="1" operator="containsText" text="baby dwarf">
+    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="baby dwarf">
       <formula>NOT(ISERROR(SEARCH("baby dwarf",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="furnish">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="furnish">
       <formula>NOT(ISERROR(SEARCH("furnish",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="place a">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="place a">
       <formula>NOT(ISERROR(SEARCH("place a",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="receive">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="receive">
       <formula>NOT(ISERROR(SEARCH("receive",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="pay">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="pay">
       <formula>NOT(ISERROR(SEARCH("pay",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4118,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03460E6A-234E-4B76-A2F7-FDC0B540496D}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,398 +4289,395 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" t="s">
         <v>234</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" t="s">
-        <v>239</v>
-      </c>
       <c r="I1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" t="s">
         <v>318</v>
-      </c>
-      <c r="J1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I6" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J8" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J9" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J10" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J12" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>200</v>
+        <v>769</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
         <v>141</v>
       </c>
-      <c r="G14" t="s">
-        <v>143</v>
-      </c>
       <c r="I14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J15" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4541,183 +4688,183 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J16" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J18" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J19" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -4726,320 +4873,320 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="7">
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B27" s="9">
         <v>25</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D27" s="9">
         <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B28" s="9">
         <v>26</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D28" s="9">
         <v>2</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="9">
         <v>27</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="9">
         <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="9">
         <v>28</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30" s="9">
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B31" s="11">
         <v>29</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -5047,100 +5194,100 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I35" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J35" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J36" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I37" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J37" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -5148,22 +5295,22 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -5171,71 +5318,71 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I40" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -5243,22 +5390,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -5266,22 +5413,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -5289,22 +5436,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -5312,22 +5459,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -5335,22 +5482,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -5358,22 +5505,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -5381,22 +5528,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -5404,13 +5551,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I49">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>$G2="yellow"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>$G2="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>$G2="red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5427,7 +5574,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5437,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5445,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5461,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5469,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5477,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5485,7 +5632,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5493,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5501,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5509,7 +5656,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5517,7 +5664,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5541,7 +5688,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5549,7 +5696,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,7 +5704,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5565,7 +5712,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5573,7 +5720,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5581,7 +5728,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5589,7 +5736,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +5752,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5613,7 +5760,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5633,122 +5780,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
         <v>260</v>
-      </c>
-      <c r="B10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5915,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5776,7 +5923,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5784,7 +5931,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5792,7 +5939,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5800,7 +5947,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5808,7 +5955,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5816,7 +5963,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -5824,7 +5971,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -5832,7 +5979,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -5840,7 +5987,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5848,7 +5995,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -5856,7 +6003,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -5864,7 +6011,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -5887,7 +6034,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -5895,7 +6042,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5903,7 +6050,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5911,7 +6058,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5919,7 +6066,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5927,7 +6074,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5935,7 +6082,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5943,7 +6090,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5951,7 +6098,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5959,7 +6106,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5986,134 +6133,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +6283,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6144,7 +6291,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B2">
         <v>-2</v>
@@ -6152,7 +6299,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -6160,7 +6307,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6168,7 +6315,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6176,7 +6323,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6184,7 +6331,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -6192,12 +6339,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6205,7 +6352,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B10">
         <v>-3</v>
@@ -6234,16 +6381,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6251,16 +6398,16 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6268,16 +6415,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6285,16 +6432,16 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6302,13 +6449,13 @@
         <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6316,13 +6463,13 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6330,13 +6477,13 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6344,7 +6491,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -6355,7 +6502,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
         <v>92</v>
@@ -6366,7 +6513,7 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -6377,7 +6524,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
@@ -6388,7 +6535,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
@@ -6399,7 +6546,7 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -6410,7 +6557,7 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
@@ -6421,7 +6568,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
         <v>79</v>
@@ -6432,7 +6579,7 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
@@ -6443,7 +6590,7 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -6454,7 +6601,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D18" t="s">
         <v>81</v>
@@ -6465,7 +6612,7 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
@@ -6476,7 +6623,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -6487,7 +6634,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -6498,7 +6645,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
@@ -6509,7 +6656,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -6517,10 +6664,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -6531,7 +6678,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -6542,10 +6689,10 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6553,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -6564,7 +6711,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D28" t="s">
         <v>51</v>
@@ -6575,7 +6722,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -6586,7 +6733,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -6597,7 +6744,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -6608,7 +6755,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -6619,7 +6766,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -6630,7 +6777,7 @@
         <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -6641,7 +6788,7 @@
         <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -6659,2103 +6806,2103 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="102" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E147" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="188" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="192" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="213" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="217" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="221" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="222" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="223" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="224" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="226" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="228" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="229" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="230" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="231" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="232" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="233" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="234" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="235" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="236" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="237" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="238" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="239" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="240" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="241" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="242" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="243" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="244" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="245" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="246" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="247" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="248" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="249" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="250" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="251" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="252" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="253" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="254" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="255" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="256" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="258" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="259" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="260" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="261" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="262" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="264" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="265" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="266" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="267" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="268" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="269" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="270" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="271" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="272" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="273" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="274" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="275" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="276" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="277" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="278" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="279" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="280" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="282" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="284" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="285" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="286" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="287" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="290" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="293" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="294" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="295" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="296" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="297" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="298" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="299" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="300" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="301" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="302" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="303" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="304" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="305" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="306" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="307" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="308" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="309" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="310" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="311" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="312" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="313" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="314" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="315" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="316" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="317" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="318" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="319" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="320" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="321" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="322" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="323" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="324" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="325" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="326" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="327" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="328" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="329" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="330" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="331" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="332" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="333" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="334" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="335" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="336" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="337" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="338" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="339" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="340" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="341" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="342" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="343" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="344" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="345" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="346" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="347" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="348" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="349" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="350" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="351" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="352" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="353" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="354" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="355" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="356" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="357" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="358" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="359" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="360" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="361" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="362" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="363" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="364" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="365" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="366" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="367" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="368" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="369" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="370" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="371" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="372" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="373" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="374" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="375" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="376" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="377" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="379" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="380" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="381" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="382" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="383" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="384" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="385" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="386" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="387" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="388" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="389" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="390" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="391" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="392" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="393" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="394" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="395" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="396" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="397" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="398" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="399" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="400" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="401" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="402" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="403" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="404" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="405" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="406" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="407" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="408" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="409" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="410" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="411" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="412" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="413" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="414" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="415" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="416" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="417" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="418" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="419" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="420" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="421" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="422" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="423" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="424" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="425" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="426" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="427" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="428" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="429" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="430" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="431" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="432" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="433" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="434" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="435" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="436" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="437" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="438" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="439" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="440" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="441" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="442" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="443" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="444" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="445" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="446" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="447" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="448" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D448" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/details.xlsx
+++ b/Resources/details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastair\OneDrive\Documents\Creative\Programming\Python\Caverna\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastairc\Documents\Creative\Caverna\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{6EE0B46E-ECCF-4B67-8489-EDE125484DF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FBDFB1F9-B7F0-4B1E-8E5F-65AF2EB21900}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5883C393-A76E-48C5-9D44-4DBFDA380DB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{985A88D9-ACD6-4D50-8968-6DB430F624CA}"/>
   </bookViews>
   <sheets>
     <sheet name="action cards" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="773">
   <si>
     <t>name</t>
   </si>
@@ -2349,6 +2349,15 @@
   </si>
   <si>
     <t>twin tiles may overhang the edge and receive 2 coin per each overhanging tile</t>
+  </si>
+  <si>
+    <t>ruby mining 2</t>
+  </si>
+  <si>
+    <t>if player has at least 1 ruby mine then receive 1 ruby</t>
+  </si>
+  <si>
+    <t>always 1 ruby</t>
   </si>
 </sst>
 </file>
@@ -2462,11 +2471,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2480,145 +2489,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2646,20 +2517,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFE0C1FF"/>
         </patternFill>
       </fill>
@@ -2668,6 +2525,26 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2758,27 +2635,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2801,10 +2657,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D9CC4E6-CB70-411E-A7A4-573F16AAC537}" name="Table1" displayName="Table1" ref="A1:J35" totalsRowShown="0">
-  <autoFilter ref="A1:J35" xr:uid="{3766C5D4-C361-44B4-AD98-BAD8BD214D0C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I35">
-    <sortCondition ref="C1:C35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D9CC4E6-CB70-411E-A7A4-573F16AAC537}" name="Table1" displayName="Table1" ref="A1:J36" totalsRowShown="0">
+  <autoFilter ref="A1:J36" xr:uid="{3766C5D4-C361-44B4-AD98-BAD8BD214D0C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J36">
+    <sortCondition ref="C1:C36"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C63C2947-CB53-4FED-8AA1-F4692B2F0544}" name="name"/>
@@ -2842,11 +2698,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3CC4776-1BB1-47A4-A2A9-F8775571405D}" name="Table3" displayName="Table3" ref="A1:B53" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:B53" xr:uid="{A4EB2E2A-BCC8-4327-8FD8-7B69602999D4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{59D50046-B7D9-4882-AFEC-FF0243C53E0B}" name="action value function output" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{13ED629A-1E3C-4AD1-844A-C53BC838B743}" name="value" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3160,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15391F36-646A-4811-8FB5-C926ED9F13BD}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3599,75 +3455,72 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>-1</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>771</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>772</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>-1</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="1">
-        <v>5</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>-1</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -3675,77 +3528,80 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>-1</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>-1</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
+      <c r="H21" s="1">
+        <v>5</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>-1</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="1">
-        <v>5</v>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -3753,25 +3609,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>280</v>
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -3779,19 +3635,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -3805,26 +3661,23 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
       <c r="H25" s="1" t="s">
         <v>280</v>
       </c>
@@ -3834,13 +3687,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>49</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
@@ -3852,9 +3705,9 @@
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>280</v>
       </c>
       <c r="J26" t="b">
@@ -3863,42 +3716,48 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>321</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>280</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -3906,25 +3765,22 @@
       <c r="H28" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -3933,70 +3789,73 @@
         <v>280</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>38</v>
+        <v>280</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>280</v>
@@ -4004,22 +3863,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>280</v>
@@ -4027,19 +3886,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>280</v>
@@ -4047,185 +3909,205 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>24</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>770</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38">
-        <f>COUNTIF(Table1[[action1]:[action2]], "take accumulated items")</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
-        <v>104</v>
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <f>COUNTIF(Table1[[action1]:[action2]], "take accumulated items")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>301</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>302</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>106</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>296</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>297</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>299</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>5</v>
       </c>
     </row>
@@ -4233,26 +4115,26 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
     <sortCondition ref="C31"/>
   </sortState>
-  <conditionalFormatting sqref="D2:E35">
-    <cfRule type="containsText" dxfId="6" priority="3" stopIfTrue="1" operator="containsText" text="take accumulated">
+  <conditionalFormatting sqref="D2:E36">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="furnish">
+      <formula>NOT(ISERROR(SEARCH("furnish",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="baby dwarf">
+      <formula>NOT(ISERROR(SEARCH("baby dwarf",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" stopIfTrue="1" operator="containsText" text="take accumulated">
       <formula>NOT(ISERROR(SEARCH("take accumulated",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="expedition">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="expedition">
       <formula>NOT(ISERROR(SEARCH("expedition",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="baby dwarf">
-      <formula>NOT(ISERROR(SEARCH("baby dwarf",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="furnish">
-      <formula>NOT(ISERROR(SEARCH("furnish",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="place a">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="place a">
       <formula>NOT(ISERROR(SEARCH("place a",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="receive">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="receive">
       <formula>NOT(ISERROR(SEARCH("receive",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="pay">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="pay">
       <formula>NOT(ISERROR(SEARCH("pay",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5551,13 +5433,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I49">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$G2="yellow"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G2="green"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$G2="red"</formula>
     </cfRule>
   </conditionalFormatting>
